--- a/static/Personel.xlsx
+++ b/static/Personel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>ФИО</t>
   </si>
@@ -22,25 +22,28 @@
     <t>Освоение компетенций</t>
   </si>
   <si>
-    <t>Тест Тестовый Тестович</t>
-  </si>
-  <si>
-    <t>Преподаватель</t>
-  </si>
-  <si>
-    <t>Тест Админ Тестовый Тестович</t>
+    <t>Олег Олеговый Олегович</t>
   </si>
   <si>
     <t>Старший Преподаватель</t>
   </si>
   <si>
+    <t>Ян Яновый Янович</t>
+  </si>
+  <si>
+    <t>Горелов Данил  Артурович</t>
+  </si>
+  <si>
+    <t>Инструктор по физической культуре</t>
+  </si>
+  <si>
     <t>Вешкин Иван Николаевич</t>
   </si>
   <si>
-    <t>Олег Олеговый Олегович</t>
-  </si>
-  <si>
-    <t>Ян Яновый Янович</t>
+    <t>Захаров Эмиль  Романович</t>
+  </si>
+  <si>
+    <t>Логопед дефектолог</t>
   </si>
 </sst>
 </file>
@@ -417,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -451,7 +454,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -459,57 +462,35 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>50</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>28.57142857142857</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
